--- a/Exercise_topics/reports/top_spenders.xlsx
+++ b/Exercise_topics/reports/top_spenders.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -31,6 +31,10 @@
     <font>
       <b val="1"/>
       <sz val="12"/>
+    </font>
+    <font>
+      <i val="1"/>
+      <color rgb="00808080"/>
     </font>
   </fonts>
   <fills count="3">
@@ -65,7 +69,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -73,6 +77,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -438,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,6 +563,13 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>Report generated: 2025-03-14 14:37</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
